--- a/medicine/Handicap/Le_Minot_d'or/Le_Minot_d'or.xlsx
+++ b/medicine/Handicap/Le_Minot_d'or/Le_Minot_d'or.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Minot_d%27or</t>
+          <t>Le_Minot_d'or</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Minot d'or  est un film québécois d'Isabelle Raynauld[1], réalisé en 2001.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Minot d'or  est un film québécois d'Isabelle Raynauld, réalisé en 2001.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Minot_d%27or</t>
+          <t>Le_Minot_d'or</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans une vieille maison de Lotbinière, nous suivons le quotidien de six personnes diagnostiquées avec une déficience intellectuelle légère. Ils ont passé plus de 30 ans dans les institutions psychiatriques, une grande partie de leur vie passée dans les hôpitaux. 
 Aujourd'hui ils vivent en dehors du monde hospitalier. Des questions naissent en voyant leur vie actuelle : Qui sont-ils ? Qui s'occupent de ces patients ? Comment vivent-ils ensemble ? Que veulent-ils maintenant ?   
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Minot_d%27or</t>
+          <t>Le_Minot_d'or</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique[2]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Le Minot d'or
 Titre en anglais : Blue potatoes
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Minot_d%27or</t>
+          <t>Le_Minot_d'or</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,9 +602,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Jutra du meilleur documentaire en 2002[3],[4]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Jutra du meilleur documentaire en 2002,</t>
         </is>
       </c>
     </row>
